--- a/data/manual_processing/manual_extraction/Manual_extraction_all.xlsx
+++ b/data/manual_processing/manual_extraction/Manual_extraction_all.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smithj/OneDrive - Nexus365/Post-doc Oxford/Research/Coronavirus/Pandemic Research Exceptionalism/Misc/Manual extraction/Completed/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioxfordnexus-my.sharepoint.com/personal/worc3533_ox_ac_uk/Documents/Post-doc Oxford/Research/Coronavirus/Pandemic Research Exceptionalism/R/COVID-trial-characteristics/data/manual_processing/manual_extraction/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7AD066DF-2DE6-8440-B6DA-0576C0164997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="8_{7AD066DF-2DE6-8440-B6DA-0576C0164997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B90688EF-6116-4845-ADD7-0E07BA7F7A07}"/>
   <bookViews>
     <workbookView xWindow="3300" yWindow="0" windowWidth="25500" windowHeight="18000" xr2:uid="{5E9C4F2F-7354-D34D-A893-8891A3B2F3F7}"/>
   </bookViews>
@@ -5685,9 +5685,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3144CDD-85A7-364A-8503-C19DB56261D5}">
   <dimension ref="A1:AK377"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="78" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A346" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F400" sqref="F400"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="78" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="X11" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="AE38" sqref="AE38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9646,13 +9648,13 @@
         <v>200</v>
       </c>
       <c r="AC37" s="4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="AD37" s="4" t="s">
         <v>39</v>
       </c>
       <c r="AE37" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="AF37" s="4" t="s">
         <v>39</v>
@@ -17622,7 +17624,7 @@
         <v>75</v>
       </c>
       <c r="AC112" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="AD112" s="4" t="s">
         <v>39</v>
@@ -21798,7 +21800,7 @@
         <v>36</v>
       </c>
       <c r="AD151" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="AE151" s="3" t="s">
         <v>39</v>
@@ -30473,7 +30475,7 @@
         <v>39</v>
       </c>
       <c r="AE232" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="AF232" s="3" t="s">
         <v>39</v>
@@ -33357,7 +33359,7 @@
         <v>170</v>
       </c>
       <c r="AC259" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="AD259" s="3" t="s">
         <v>39</v>
@@ -34427,13 +34429,13 @@
         <v>120</v>
       </c>
       <c r="AC269" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="AD269" s="3" t="s">
         <v>39</v>
       </c>
       <c r="AE269" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="AF269" s="3" t="s">
         <v>39</v>
@@ -35176,7 +35178,7 @@
         <v>100</v>
       </c>
       <c r="AC276" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="AD276" s="3" t="s">
         <v>36</v>

--- a/data/manual_processing/manual_extraction/Manual_extraction_all.xlsx
+++ b/data/manual_processing/manual_extraction/Manual_extraction_all.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioxfordnexus-my.sharepoint.com/personal/worc3533_ox_ac_uk/Documents/Post-doc Oxford/Research/Coronavirus/Pandemic Research Exceptionalism/R/COVID-trial-characteristics/data/manual_processing/manual_extraction/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="78" documentId="8_{7AD066DF-2DE6-8440-B6DA-0576C0164997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A720282E-F3B3-1647-9562-19198A512EE2}"/>
+  <xr:revisionPtr revIDLastSave="103" documentId="8_{7AD066DF-2DE6-8440-B6DA-0576C0164997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{761410B5-85EA-4E41-8568-64838092FA79}"/>
   <bookViews>
-    <workbookView xWindow="3300" yWindow="0" windowWidth="25500" windowHeight="18000" xr2:uid="{5E9C4F2F-7354-D34D-A893-8891A3B2F3F7}"/>
+    <workbookView xWindow="820" yWindow="0" windowWidth="27980" windowHeight="18000" xr2:uid="{5E9C4F2F-7354-D34D-A893-8891A3B2F3F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12458" uniqueCount="1808">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12459" uniqueCount="1808">
   <si>
     <t xml:space="preserve">TrialID </t>
   </si>
@@ -5914,10 +5914,10 @@
   <dimension ref="A1:AK377"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="78" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="H83" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="Y2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M104" sqref="M104"/>
+      <selection pane="bottomRight" activeCell="AI18" sqref="AI18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11094,7 +11094,7 @@
         <v>39</v>
       </c>
       <c r="P49" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="Q49" s="4" t="s">
         <v>52</v>
@@ -15879,7 +15879,7 @@
         <v>39</v>
       </c>
       <c r="P94" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="Q94" s="4" t="s">
         <v>61</v>
@@ -16095,7 +16095,7 @@
         <v>39</v>
       </c>
       <c r="P96" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="Q96" s="4" t="s">
         <v>61</v>
@@ -16419,7 +16419,7 @@
         <v>83</v>
       </c>
       <c r="P99" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="Q99" s="4" t="s">
         <v>61</v>
@@ -18562,7 +18562,7 @@
         <v>39</v>
       </c>
       <c r="P119" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="Q119" s="4" t="s">
         <v>68</v>
@@ -22414,7 +22414,7 @@
         <v>39</v>
       </c>
       <c r="P155" s="4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="Q155" s="4" t="s">
         <v>52</v>
@@ -22949,7 +22949,7 @@
         <v>39</v>
       </c>
       <c r="P160" s="4" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="Q160" s="4" t="s">
         <v>52</v>
@@ -24233,7 +24233,7 @@
         <v>39</v>
       </c>
       <c r="P172" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="Q172" s="4" t="s">
         <v>52</v>
@@ -25731,7 +25731,7 @@
         <v>39</v>
       </c>
       <c r="P186" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="Q186" s="4" t="s">
         <v>52</v>
@@ -27122,7 +27122,7 @@
         <v>39</v>
       </c>
       <c r="P199" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="Q199" s="3" t="s">
         <v>61</v>
@@ -27552,7 +27552,7 @@
         <v>40</v>
       </c>
       <c r="P203" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="Q203" s="3" t="s">
         <v>61</v>
@@ -29909,7 +29909,7 @@
         <v>83</v>
       </c>
       <c r="P225" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="Q225" s="3" t="s">
         <v>61</v>
@@ -30551,7 +30551,7 @@
         <v>39</v>
       </c>
       <c r="P231" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="Q231" s="3" t="s">
         <v>66</v>
@@ -30658,7 +30658,7 @@
         <v>39</v>
       </c>
       <c r="P232" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="Q232" s="3" t="s">
         <v>66</v>
@@ -31407,7 +31407,7 @@
         <v>39</v>
       </c>
       <c r="P239" s="4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="Q239" s="3" t="s">
         <v>76</v>
@@ -41790,7 +41790,7 @@
         <v>83</v>
       </c>
       <c r="P336" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="Q336" s="17" t="s">
         <v>61</v>
@@ -42276,7 +42276,9 @@
       <c r="F341" s="4" t="s">
         <v>1727</v>
       </c>
-      <c r="G341" s="17"/>
+      <c r="G341" s="24" t="s">
+        <v>1776</v>
+      </c>
       <c r="H341" s="3" t="s">
         <v>36</v>
       </c>
@@ -42302,7 +42304,7 @@
         <v>39</v>
       </c>
       <c r="P341" s="3" t="s">
-        <v>83</v>
+        <v>36</v>
       </c>
       <c r="Q341" s="17" t="s">
         <v>61</v>
@@ -44335,7 +44337,7 @@
         <v>83</v>
       </c>
       <c r="P360" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="Q360" s="17" t="s">
         <v>66</v>
